--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_7_6.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_7_6.xlsx
@@ -478,249 +478,249 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_4</t>
+          <t>model_7_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4454163582650983</v>
+        <v>0.7910188390328098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3530465907900839</v>
+        <v>0.9091011449515201</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1514029053042851</v>
+        <v>0.6254767037754212</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1816708983295235</v>
+        <v>0.8229452383691889</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6137606501579285</v>
+        <v>0.231280580163002</v>
       </c>
       <c r="G2" t="n">
-        <v>1.328072428703308</v>
+        <v>0.07942944765090942</v>
       </c>
       <c r="H2" t="n">
-        <v>1.406566381454468</v>
+        <v>0.1613206267356873</v>
       </c>
       <c r="I2" t="n">
-        <v>1.365010857582092</v>
+        <v>0.1179664954543114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_3</t>
+          <t>model_7_6_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4566161864220575</v>
+        <v>0.7981643045777636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4051959190950227</v>
+        <v>0.9060960606875952</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1146117447412061</v>
+        <v>0.632906261595537</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2283276508978518</v>
+        <v>0.8231190293777405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6013657450675964</v>
+        <v>0.2233726531267166</v>
       </c>
       <c r="G3" t="n">
-        <v>1.221019744873047</v>
+        <v>0.08205536007881165</v>
       </c>
       <c r="H3" t="n">
-        <v>1.361621856689453</v>
+        <v>0.1581204533576965</v>
       </c>
       <c r="I3" t="n">
-        <v>1.287185311317444</v>
+        <v>0.1178507208824158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_0</t>
+          <t>model_7_6_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4592302508693987</v>
+        <v>0.804942623137531</v>
       </c>
       <c r="C4" t="n">
-        <v>0.62838012586019</v>
+        <v>0.9030424379709416</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2395311388675749</v>
+        <v>0.6389978019014303</v>
       </c>
       <c r="E4" t="n">
-        <v>0.330683834744994</v>
+        <v>0.8228522691928117</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5984727144241333</v>
+        <v>0.2158710658550262</v>
       </c>
       <c r="G4" t="n">
-        <v>0.762864887714386</v>
+        <v>0.08472368121147156</v>
       </c>
       <c r="H4" t="n">
-        <v>1.514224886894226</v>
+        <v>0.1554965972900391</v>
       </c>
       <c r="I4" t="n">
-        <v>1.116450309753418</v>
+        <v>0.1180284470319748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_2</t>
+          <t>model_7_6_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4672206032877056</v>
+        <v>0.8113253129270077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4204856108874094</v>
+        <v>0.9001387259768857</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03508086750028805</v>
+        <v>0.6428252023006018</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2656988704192571</v>
+        <v>0.8220002995581144</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5896297693252563</v>
+        <v>0.2088072597980499</v>
       </c>
       <c r="G5" t="n">
-        <v>1.189632892608643</v>
+        <v>0.08726099878549576</v>
       </c>
       <c r="H5" t="n">
-        <v>1.264466166496277</v>
+        <v>0.1538480073213577</v>
       </c>
       <c r="I5" t="n">
-        <v>1.22484827041626</v>
+        <v>0.1185961067676544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_7</t>
+          <t>model_7_6_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4694529318700807</v>
+        <v>0.8174161782298359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2052790715667241</v>
+        <v>0.897949950368048</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2272875462317323</v>
+        <v>0.6447315863900929</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05924321225210372</v>
+        <v>0.8210605209014048</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5871592164039612</v>
+        <v>0.202066496014595</v>
       </c>
       <c r="G6" t="n">
-        <v>1.631411075592041</v>
+        <v>0.08917360752820969</v>
       </c>
       <c r="H6" t="n">
-        <v>1.499268054962158</v>
+        <v>0.1530268490314484</v>
       </c>
       <c r="I6" t="n">
-        <v>1.569226026535034</v>
+        <v>0.1192222461104393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_1</t>
+          <t>model_7_6_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.470311343378326</v>
+        <v>0.8232343318184314</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4296795273249178</v>
+        <v>0.8969348752835573</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01961194633311314</v>
+        <v>0.6437418322543139</v>
       </c>
       <c r="E7" t="n">
-        <v>0.290538115782533</v>
+        <v>0.8200546170853158</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5862092971801758</v>
+        <v>0.1956274956464767</v>
       </c>
       <c r="G7" t="n">
-        <v>1.170759558677673</v>
+        <v>0.09006060659885406</v>
       </c>
       <c r="H7" t="n">
-        <v>1.197652816772461</v>
+        <v>0.1534532010555267</v>
       </c>
       <c r="I7" t="n">
-        <v>1.183415412902832</v>
+        <v>0.1198924407362938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_9</t>
+          <t>model_7_6_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4706218023149953</v>
+        <v>0.8286929913456262</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1729273037441943</v>
+        <v>0.8966629888947315</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.280074740302291</v>
+        <v>0.6392254365431521</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01997105533278054</v>
+        <v>0.8184919409160585</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5858656167984009</v>
+        <v>0.1895864009857178</v>
       </c>
       <c r="G8" t="n">
-        <v>1.697823047637939</v>
+        <v>0.09029818326234818</v>
       </c>
       <c r="H8" t="n">
-        <v>1.563753366470337</v>
+        <v>0.1553985625505447</v>
       </c>
       <c r="I8" t="n">
-        <v>1.63473379611969</v>
+        <v>0.1209336146712303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_5</t>
+          <t>model_7_6_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4716758322307312</v>
+        <v>0.8336196714084425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3062894744397168</v>
+        <v>0.897269487860074</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1620195791139003</v>
+        <v>0.6270836326668295</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1475481275347357</v>
+        <v>0.8152191070773965</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5846991539001465</v>
+        <v>0.1841340065002441</v>
       </c>
       <c r="G9" t="n">
-        <v>1.424055814743042</v>
+        <v>0.08976820856332779</v>
       </c>
       <c r="H9" t="n">
-        <v>1.419535875320435</v>
+        <v>0.160628467798233</v>
       </c>
       <c r="I9" t="n">
-        <v>1.421929240226746</v>
+        <v>0.1231142058968544</v>
       </c>
     </row>
     <row r="10">
@@ -730,245 +730,245 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4755681972813763</v>
+        <v>0.8376790581714322</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2197303956076309</v>
+        <v>0.8974230997618156</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2981088330580577</v>
+        <v>0.6050047227844371</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04425062597960983</v>
+        <v>0.8086088410123528</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5803914666175842</v>
+        <v>0.179641455411911</v>
       </c>
       <c r="G10" t="n">
-        <v>1.601745128631592</v>
+        <v>0.08963398635387421</v>
       </c>
       <c r="H10" t="n">
-        <v>1.585783958435059</v>
+        <v>0.1701386570930481</v>
       </c>
       <c r="I10" t="n">
-        <v>1.594234108924866</v>
+        <v>0.127518430352211</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_6</t>
+          <t>model_7_6_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4760275597573511</v>
+        <v>0.8413862073649325</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2297554580386317</v>
+        <v>0.8970569662045559</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2032933796099265</v>
+        <v>0.5816024496113248</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08345946254010284</v>
+        <v>0.8012347208523009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5798830986022949</v>
+        <v>0.1755387336015701</v>
       </c>
       <c r="G11" t="n">
-        <v>1.581165671348572</v>
+        <v>0.08995392173528671</v>
       </c>
       <c r="H11" t="n">
-        <v>1.469956398010254</v>
+        <v>0.1802188456058502</v>
       </c>
       <c r="I11" t="n">
-        <v>1.528832077980042</v>
+        <v>0.1324316114187241</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_17</t>
+          <t>model_7_6_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5080326603545791</v>
+        <v>0.8445750166408454</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1393340547135086</v>
+        <v>0.8969238451907887</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3766533126256073</v>
+        <v>0.5518016466609983</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03519894878195751</v>
+        <v>0.7920759897466756</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5444628596305847</v>
+        <v>0.1720096617937088</v>
       </c>
       <c r="G12" t="n">
-        <v>1.766783475875854</v>
+        <v>0.09007023274898529</v>
       </c>
       <c r="H12" t="n">
-        <v>1.681734800338745</v>
+        <v>0.193055123090744</v>
       </c>
       <c r="I12" t="n">
-        <v>1.726759910583496</v>
+        <v>0.1385337859392166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_12</t>
+          <t>model_7_6_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5160994898959543</v>
+        <v>0.8469205605554602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04628965351802206</v>
+        <v>0.8974631122924752</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01145785550025824</v>
+        <v>0.5096265639152572</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03004034823801027</v>
+        <v>0.7796194840225399</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5355352759361267</v>
+        <v>0.169413834810257</v>
       </c>
       <c r="G13" t="n">
-        <v>1.957786083221436</v>
+        <v>0.08959902822971344</v>
       </c>
       <c r="H13" t="n">
-        <v>1.235608100891113</v>
+        <v>0.21122145652771</v>
       </c>
       <c r="I13" t="n">
-        <v>1.617937803268433</v>
+        <v>0.1468332260847092</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_10</t>
+          <t>model_7_6_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5172679334922226</v>
+        <v>0.8497007450963017</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1160958785044863</v>
+        <v>0.8980076218657798</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03078531578792432</v>
+        <v>0.4784574437634944</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06886016772643611</v>
+        <v>0.7705150278482567</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5342421531677246</v>
+        <v>0.1663369834423065</v>
       </c>
       <c r="G14" t="n">
-        <v>1.814486980438232</v>
+        <v>0.08912321925163269</v>
       </c>
       <c r="H14" t="n">
-        <v>1.259218811988831</v>
+        <v>0.2246471047401428</v>
       </c>
       <c r="I14" t="n">
-        <v>1.553184390068054</v>
+        <v>0.1528992503881454</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_11</t>
+          <t>model_7_6_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5182346837840635</v>
+        <v>0.8526443477904422</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1231045423317995</v>
+        <v>0.89931909943212</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05576358692854311</v>
+        <v>0.4511911766722269</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06481900248820716</v>
+        <v>0.7631304698514239</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5331722497940063</v>
+        <v>0.1630792766809464</v>
       </c>
       <c r="G15" t="n">
-        <v>1.800099730491638</v>
+        <v>0.08797720819711685</v>
       </c>
       <c r="H15" t="n">
-        <v>1.289732456207275</v>
+        <v>0.2363916635513306</v>
       </c>
       <c r="I15" t="n">
-        <v>1.559925198554993</v>
+        <v>0.1578193753957748</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_18</t>
+          <t>model_7_6_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5350958885906769</v>
+        <v>0.8558885954418365</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2176433269567805</v>
+        <v>0.9004775348277246</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3758509108204848</v>
+        <v>0.4323741572685847</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01609850729852458</v>
+        <v>0.7582102774681413</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5145118832588196</v>
+        <v>0.1594888716936111</v>
       </c>
       <c r="G16" t="n">
-        <v>1.606029510498047</v>
+        <v>0.08696494996547699</v>
       </c>
       <c r="H16" t="n">
-        <v>1.680754661560059</v>
+        <v>0.2444968223571777</v>
       </c>
       <c r="I16" t="n">
-        <v>1.641193270683289</v>
+        <v>0.1610975563526154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_13</t>
+          <t>model_7_6_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5565356368896387</v>
+        <v>0.8587544721217211</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1517689667154438</v>
+        <v>0.9020175742707286</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03989984755375908</v>
+        <v>0.4100169310387078</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08896146783450309</v>
+        <v>0.7524776572269817</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4907843768596649</v>
+        <v>0.1563171595335007</v>
       </c>
       <c r="G17" t="n">
-        <v>1.741257190704346</v>
+        <v>0.08561922609806061</v>
       </c>
       <c r="H17" t="n">
-        <v>1.270353198051453</v>
+        <v>0.2541269063949585</v>
       </c>
       <c r="I17" t="n">
-        <v>1.519654631614685</v>
+        <v>0.1649170517921448</v>
       </c>
     </row>
     <row r="18">
@@ -978,90 +978,90 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5611500907458191</v>
+        <v>0.8619603913881422</v>
       </c>
       <c r="C18" t="n">
-        <v>0.195797703372026</v>
+        <v>0.9032783754109351</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1432857152179849</v>
+        <v>0.3964660673903179</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08201570748442411</v>
+        <v>0.7492306994668286</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4856775104999542</v>
+        <v>0.1527691632509232</v>
       </c>
       <c r="G18" t="n">
-        <v>1.650874495506287</v>
+        <v>0.08451750874519348</v>
       </c>
       <c r="H18" t="n">
-        <v>1.396650433540344</v>
+        <v>0.2599637508392334</v>
       </c>
       <c r="I18" t="n">
-        <v>1.531240344047546</v>
+        <v>0.1670803874731064</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_15</t>
+          <t>model_7_6_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5626084788170855</v>
+        <v>0.8648180123369733</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1953047591082935</v>
+        <v>0.9039126083215101</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1266250687590138</v>
+        <v>0.3810093083093736</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08743746492629045</v>
+        <v>0.744968629815292</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4840634763240814</v>
+        <v>0.1496066004037857</v>
       </c>
       <c r="G19" t="n">
-        <v>1.651886463165283</v>
+        <v>0.0839633047580719</v>
       </c>
       <c r="H19" t="n">
-        <v>1.37629759311676</v>
+        <v>0.2666215300559998</v>
       </c>
       <c r="I19" t="n">
-        <v>1.522196650505066</v>
+        <v>0.1699200868606567</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_14</t>
+          <t>model_7_6_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5644081088931954</v>
+        <v>0.8674981619950888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1831188422984282</v>
+        <v>0.9042216175821491</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.08464691348203135</v>
+        <v>0.3656652960804211</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09396471864938327</v>
+        <v>0.7405151142652997</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4820718765258789</v>
+        <v>0.1466404944658279</v>
       </c>
       <c r="G20" t="n">
-        <v>1.676901698112488</v>
+        <v>0.08369328826665878</v>
       </c>
       <c r="H20" t="n">
-        <v>1.325016617774963</v>
+        <v>0.2732307314872742</v>
       </c>
       <c r="I20" t="n">
-        <v>1.511308908462524</v>
+        <v>0.1728873252868652</v>
       </c>
     </row>
     <row r="21">
@@ -1071,183 +1071,183 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5803375008291282</v>
+        <v>0.8699387760751471</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3146662628461384</v>
+        <v>0.9043637920244048</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3130494364594201</v>
+        <v>0.3485859248851034</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1009553660482631</v>
+        <v>0.7354177920166995</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4644427299499512</v>
+        <v>0.1439394652843475</v>
       </c>
       <c r="G21" t="n">
-        <v>1.406859874725342</v>
+        <v>0.08356904983520508</v>
       </c>
       <c r="H21" t="n">
-        <v>1.604035615921021</v>
+        <v>0.2805874347686768</v>
       </c>
       <c r="I21" t="n">
-        <v>1.499648094177246</v>
+        <v>0.1762835085391998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_22</t>
+          <t>model_7_6_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5919626615901142</v>
+        <v>0.8723083844495988</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3671931574807143</v>
+        <v>0.9048619677884445</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3595235953431373</v>
+        <v>0.3313602801925823</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1191611210258939</v>
+        <v>0.7305231386749073</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4515770971775055</v>
+        <v>0.1413169950246811</v>
       </c>
       <c r="G22" t="n">
-        <v>1.299032092094421</v>
+        <v>0.08313372731208801</v>
       </c>
       <c r="H22" t="n">
-        <v>1.66080904006958</v>
+        <v>0.2880071401596069</v>
       </c>
       <c r="I22" t="n">
-        <v>1.469280123710632</v>
+        <v>0.1795447021722794</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_24</t>
+          <t>model_7_6_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6137855985396465</v>
+        <v>0.8744311029510601</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4056359924991824</v>
+        <v>0.9050276346345814</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3059325338168313</v>
+        <v>0.313396565947255</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1626769577107633</v>
+        <v>0.7251729275811785</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4274255633354187</v>
+        <v>0.1389677673578262</v>
       </c>
       <c r="G23" t="n">
-        <v>1.220116376876831</v>
+        <v>0.08298896998167038</v>
       </c>
       <c r="H23" t="n">
-        <v>1.595341563224792</v>
+        <v>0.2957447171211243</v>
       </c>
       <c r="I23" t="n">
-        <v>1.396693587303162</v>
+        <v>0.1831094026565552</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_23</t>
+          <t>model_7_6_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6159133041537448</v>
+        <v>0.876350375712641</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4071679643767404</v>
+        <v>0.9041097986944752</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2943632465430734</v>
+        <v>0.2964842342606882</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1676626349845749</v>
+        <v>0.7193906941539605</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4250708222389221</v>
+        <v>0.1368436962366104</v>
       </c>
       <c r="G24" t="n">
-        <v>1.216971397399902</v>
+        <v>0.08379099518060684</v>
       </c>
       <c r="H24" t="n">
-        <v>1.581208348274231</v>
+        <v>0.303029477596283</v>
       </c>
       <c r="I24" t="n">
-        <v>1.38837718963623</v>
+        <v>0.1869619190692902</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_21</t>
+          <t>model_7_6_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6277941724564255</v>
+        <v>0.8780612108997591</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4118658745433775</v>
+        <v>0.9034937978570214</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2141481312000291</v>
+        <v>0.2771240952094969</v>
       </c>
       <c r="E25" t="n">
-        <v>0.198368409628966</v>
+        <v>0.7130729002034555</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4119221866130829</v>
+        <v>0.1349503099918365</v>
       </c>
       <c r="G25" t="n">
-        <v>1.207327485084534</v>
+        <v>0.0843292772769928</v>
       </c>
       <c r="H25" t="n">
-        <v>1.483216762542725</v>
+        <v>0.3113686144351959</v>
       </c>
       <c r="I25" t="n">
-        <v>1.337158679962158</v>
+        <v>0.1911712884902954</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_20</t>
+          <t>model_7_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6305539321509466</v>
+        <v>0.879625857979323</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3970636424171154</v>
+        <v>0.9026051856181353</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.162188953338805</v>
+        <v>0.2574701492143713</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2066319789849282</v>
+        <v>0.7064766014869475</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4088678956031799</v>
+        <v>0.1332186907529831</v>
       </c>
       <c r="G26" t="n">
-        <v>1.237713694572449</v>
+        <v>0.08510575443506241</v>
       </c>
       <c r="H26" t="n">
-        <v>1.419742822647095</v>
+        <v>0.3198342323303223</v>
       </c>
       <c r="I26" t="n">
-        <v>1.323374629020691</v>
+        <v>0.1955662220716476</v>
       </c>
     </row>
   </sheetData>
